--- a/tabla_transporte.xlsx
+++ b/tabla_transporte.xlsx
@@ -1,111 +1,62 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mesoi\Documents\1UNI6VED\2024\2.SEGUNDO_SEMESTRE\IO 1\Segundo Parcial\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC57562C-F356-4DED-BC04-EA9764CE5D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{75B585CB-6A5D-4098-A698-78F4B71F3659}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Datos" sheetId="1" r:id="rId1"/>
-    <sheet name="Resultados" sheetId="2" r:id="rId2"/>
+    <sheet name="Datos" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Resultados" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="solucion_noroeste" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Destino 1</t>
-  </si>
-  <si>
-    <t>Destino 2</t>
-  </si>
-  <si>
-    <t>Destino 3</t>
-  </si>
-  <si>
-    <t>Suministro</t>
-  </si>
-  <si>
-    <t>Origen 1</t>
-  </si>
-  <si>
-    <t>Origen 2</t>
-  </si>
-  <si>
-    <t>Origen 3</t>
-  </si>
-  <si>
-    <t>Demanda</t>
-  </si>
-  <si>
-    <t>Destino 4</t>
-  </si>
-  <si>
-    <t>Destino 5</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -141,31 +92,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -485,126 +502,150 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{750923B2-1266-4F83-B477-1C902C13A3C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3">
+    <row r="1" ht="15.6" customHeight="1">
+      <c r="A1" s="1" t="n"/>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Destino 1</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Destino 2</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Destino 3</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Destino 4</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Destino 5</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Suministro</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.6" customHeight="1">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Origen 1</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="n">
         <v>42</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="2" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3">
+    <row r="3" ht="15.6" customHeight="1">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Origen 2</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="n">
         <v>34</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="2" t="n">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3">
+    <row r="4" ht="15.6" customHeight="1">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Origen 3</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="n">
         <v>38</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="2" t="n">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2">
+    <row r="5" ht="15.6" customHeight="1">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Demanda</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="4"/>
+      <c r="G5" s="1" t="n"/>
+      <c r="H5" s="4" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -612,15 +653,963 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A007D7FB-DF73-47B0-9CEB-E7D0C0E87A2E}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="27" customWidth="1" min="1" max="1"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="4" max="4"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Paso 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>18</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="H5" s="6" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Asignación: (1, 1) = 10.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="7"/>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Paso 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>18</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="H12" s="6" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Asignación: (1, 2) = 10.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14"/>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Paso 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C16" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D16" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>18</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="H19" s="6" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Asignación: (2, 2) = 2.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21"/>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Paso 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C23" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D23" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="6" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="F26" s="6" t="n">
+        <v>18</v>
+      </c>
+      <c r="G26" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="H26" s="6" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Asignación: (2, 3) = 14.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="28"/>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Paso 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C30" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D30" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="E31" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="F31" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="6" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F33" s="6" t="n">
+        <v>18</v>
+      </c>
+      <c r="G33" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="H33" s="6" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Asignación: (2, 4) = 9.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="35"/>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Paso 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C37" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D37" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D38" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="E38" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="F38" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="F39" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" s="6" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" s="6" t="n">
+        <v>18</v>
+      </c>
+      <c r="G40" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="H40" s="6" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Asignación: (3, 4) = 7.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="42"/>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Paso 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C44" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D44" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D45" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="E45" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="F45" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F46" s="5" t="n">
+        <v>18</v>
+      </c>
+      <c r="G46" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" s="6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="H47" s="6" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Asignación: (3, 5) = 18.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="49"/>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Paso 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C51" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D51" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D52" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="E52" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="F52" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C53" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F53" s="6" t="n">
+        <v>18</v>
+      </c>
+      <c r="G53" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="H53" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" s="6" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Asignación: (3, 6) = 10.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="56"/>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Solución Final:</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" t="n">
+        <v>10</v>
+      </c>
+      <c r="C58" t="n">
+        <v>10</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" t="n">
+        <v>0</v>
+      </c>
+      <c r="C59" t="n">
+        <v>2</v>
+      </c>
+      <c r="D59" t="n">
+        <v>14</v>
+      </c>
+      <c r="E59" t="n">
+        <v>9</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" t="n">
+        <v>0</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>7</v>
+      </c>
+      <c r="F60" t="n">
+        <v>18</v>
+      </c>
+      <c r="G60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61"/>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Costo total: 2493.0</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>